--- a/3Vikna/Excel skjal yfir tölvur.xlsx
+++ b/3Vikna/Excel skjal yfir tölvur.xlsx
@@ -722,1687 +722,1688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="40.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="40.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1958</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1960</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1976</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>84</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1962</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>85</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1953</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1956</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1954</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1952</v>
       </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>86</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1963</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>87</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1968</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>85</v>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1949</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1962</v>
       </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1955</v>
       </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1967</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>89</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1964</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1960</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1967</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1943</v>
       </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1949</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>93</v>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1957</v>
       </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
         <v>94</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1989</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>83</v>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
         <v>44</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1954</v>
       </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1949</v>
       </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1951</v>
       </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
         <v>47</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1955</v>
       </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>95</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1964</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>85</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1946</v>
       </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
         <v>96</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1943</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>93</v>
       </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1950</v>
       </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
         <v>22</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1951</v>
       </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
         <v>37</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1953</v>
       </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1956</v>
       </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
         <v>97</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1961</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>85</v>
       </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
+    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
         <v>98</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1937</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>83</v>
       </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
         <v>99</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1947</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>83</v>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
         <v>20</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1950</v>
       </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
         <v>100</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1955</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>85</v>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
+    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
         <v>24</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1951</v>
       </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
         <v>30</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1952</v>
       </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
         <v>33</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1952</v>
       </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
         <v>101</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1960</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>85</v>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
         <v>102</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1965</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>85</v>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
         <v>48</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1955</v>
       </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
         <v>32</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1952</v>
       </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
         <v>38</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1953</v>
       </c>
-      <c r="F46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
         <v>28</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1951</v>
       </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
+    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
         <v>54</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1956</v>
       </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
         <v>19</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1950</v>
       </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
         <v>103</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>1958</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>85</v>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>1949</v>
       </c>
-      <c r="F51" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1948</v>
       </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
         <v>31</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>1952</v>
       </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
         <v>105</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>1918</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>83</v>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
         <v>62</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>1957</v>
       </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
         <v>106</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1949</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>83</v>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
         <v>63</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>1957</v>
       </c>
-      <c r="F57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
         <v>108</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1962</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>85</v>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
         <v>27</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1951</v>
       </c>
-      <c r="F59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
         <v>109</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1961</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>85</v>
       </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
         <v>110</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>1642</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>83</v>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
+    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
         <v>112</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>1968</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>85</v>
       </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
         <v>51</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1956</v>
       </c>
-      <c r="F63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
+    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
         <v>113</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>1957</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>85</v>
       </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
         <v>21</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>1950</v>
       </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D66" t="s">
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
         <v>39</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>1953</v>
       </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
         <v>57</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1956</v>
       </c>
-      <c r="F67" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
         <v>43</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1954</v>
       </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
         <v>29</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1952</v>
       </c>
-      <c r="F69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
         <v>69</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>1959</v>
       </c>
-      <c r="F70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
         <v>64</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>1957</v>
       </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
         <v>114</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>1965</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>85</v>
       </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
         <v>14</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>1950</v>
       </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
         <v>56</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>1956</v>
       </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
+    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
         <v>115</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>1950</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>83</v>
       </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
         <v>52</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>1956</v>
       </c>
-      <c r="F76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D77" t="s">
+    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
         <v>116</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>1948</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>93</v>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D78" t="s">
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
         <v>117</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>1672</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>83</v>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D79" t="s">
+    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
         <v>40</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>1953</v>
       </c>
-      <c r="F79" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
+    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
         <v>73</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>1961</v>
       </c>
-      <c r="F80" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D81" t="s">
+    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>1950</v>
       </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D82" t="s">
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
         <v>118</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>1942</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>119</v>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D83" t="s">
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
         <v>71</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>1960</v>
       </c>
-      <c r="F83" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D84" t="s">
+    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
         <v>120</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>1954</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>85</v>
       </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D85" t="s">
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
         <v>121</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>1936</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>85</v>
       </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
+    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
         <v>78</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>1936</v>
       </c>
-      <c r="F86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" t="b">
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" t="b">
         <v>0</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D87" t="s">
+    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
         <v>74</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>1962</v>
       </c>
-      <c r="F87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D88" t="s">
+    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
         <v>26</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>1951</v>
       </c>
-      <c r="F88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D89" t="s">
+      <c r="G88" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
         <v>122</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>1958</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>85</v>
       </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D90" t="s">
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
         <v>67</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>1959</v>
       </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D91" t="s">
+    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
         <v>49</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>1955</v>
       </c>
-      <c r="F91" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D92" t="s">
+    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
         <v>25</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>1951</v>
       </c>
-      <c r="F92" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D93" t="s">
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
         <v>76</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>1985</v>
       </c>
-      <c r="F93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D94" t="s">
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
         <v>45</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>1954</v>
       </c>
-      <c r="F94" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D95" t="s">
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
         <v>123</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>1936</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>83</v>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D96" t="s">
+    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
         <v>60</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>1957</v>
       </c>
-      <c r="F96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D97" t="s">
+    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
         <v>124</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>1941</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>125</v>
       </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D98" t="s">
+    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
         <v>68</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>1958</v>
       </c>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
         <v>70</v>
       </c>
     </row>
